--- a/data/trans_orig/P57_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P57_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E74F6D8-3EB7-4D35-A0FF-D8002FB80AB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CF84317-A2E4-4F05-A65D-3548AE90E952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4AF8E2D5-7FA4-4080-85C9-FBE10A478614}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{71A858F8-7C27-43D0-B530-B1CDC14F7D36}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -75,28 +75,28 @@
     <t>20,73%</t>
   </si>
   <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
   </si>
   <si>
     <t>20,28%</t>
   </si>
   <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
   </si>
   <si>
     <t>20,51%</t>
   </si>
   <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>79,27%</t>
   </si>
   <si>
-    <t>70,3%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
   </si>
   <si>
     <t>79,72%</t>
   </si>
   <si>
-    <t>71,58%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
   </si>
   <si>
     <t>79,49%</t>
   </si>
   <si>
-    <t>73,83%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
+    <t>73,57%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,7 +138,7 @@
     <t>18,54%</t>
   </si>
   <si>
-    <t>15,24%</t>
+    <t>15,19%</t>
   </si>
   <si>
     <t>21,76%</t>
@@ -147,19 +147,19 @@
     <t>24,85%</t>
   </si>
   <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
   </si>
   <si>
     <t>21,69%</t>
   </si>
   <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
   </si>
   <si>
     <t>81,46%</t>
@@ -168,25 +168,25 @@
     <t>78,24%</t>
   </si>
   <si>
-    <t>84,76%</t>
+    <t>84,81%</t>
   </si>
   <si>
     <t>75,15%</t>
   </si>
   <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
+    <t>71,5%</t>
+  </si>
+  <si>
+    <t>78,68%</t>
   </si>
   <si>
     <t>78,31%</t>
   </si>
   <si>
-    <t>75,6%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
+    <t>75,56%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -195,535 +195,535 @@
     <t>20,1%</t>
   </si>
   <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
   </si>
   <si>
     <t>23,78%</t>
   </si>
   <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
   </si>
   <si>
     <t>21,96%</t>
   </si>
   <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>73,17%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>82,52%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>71,39%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>76,02%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>77,93%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con felicidad &lt;= 6 (Likert 0 a 10) en 2023 (Tasa respuesta: 99,36%)</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
     <t>20,11%</t>
   </si>
   <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>74,97%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
   </si>
   <si>
     <t>79,89%</t>
   </si>
   <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>80,93%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
   </si>
   <si>
     <t>16,34%</t>
   </si>
   <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>77,56%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
   </si>
   <si>
     <t>83,66%</t>
   </si>
   <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>82,52%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
-  </si>
-  <si>
-    <t>77,12%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>77,97%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con felicidad &lt;= 6 (Likert 0 a 10) en 2023 (Tasa respuesta: 99,36%)</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>80,93%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>80,53%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
+    <t>85,61%</t>
   </si>
 </sst>
 </file>
@@ -1135,7 +1135,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F347F0B-FC90-4DDD-AF02-CB0D301B2E28}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D4F182-D623-4DD0-8A20-95E8B132A330}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2040,7 +2040,7 @@
         <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>744</v>
@@ -2049,13 +2049,13 @@
         <v>827903</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>1348</v>
@@ -2064,13 +2064,13 @@
         <v>1453996</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2085,13 +2085,13 @@
         <v>2754640</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>2579</v>
@@ -2100,13 +2100,13 @@
         <v>2700201</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>5193</v>
@@ -2115,13 +2115,13 @@
         <v>5454840</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2177,7 +2177,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2198,7 +2198,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92DD96CB-7711-4FFC-9EC4-ED57F68A640B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D29FDED7-A11D-493C-9F49-FFAA5828E3E0}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2215,7 +2215,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2322,13 +2322,13 @@
         <v>16269</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H4" s="7">
         <v>44</v>
@@ -2337,13 +2337,13 @@
         <v>19403</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>91</v>
       </c>
       <c r="M4" s="7">
         <v>66</v>
@@ -2352,13 +2352,13 @@
         <v>35672</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2373,13 +2373,13 @@
         <v>81683</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H5" s="7">
         <v>193</v>
@@ -2388,10 +2388,10 @@
         <v>108782</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>139</v>
@@ -2513,7 +2513,7 @@
         <v>150</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>36</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2528,13 +2528,13 @@
         <v>452823</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H8" s="7">
         <v>765</v>
@@ -2543,13 +2543,13 @@
         <v>466566</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M8" s="7">
         <v>1253</v>
@@ -2558,13 +2558,13 @@
         <v>919389</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>159</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2632,13 +2632,13 @@
         <v>123733</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H10" s="7">
         <v>291</v>
@@ -2647,13 +2647,13 @@
         <v>183828</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>164</v>
+        <v>39</v>
       </c>
       <c r="M10" s="7">
         <v>439</v>
@@ -2662,13 +2662,13 @@
         <v>307561</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2683,13 +2683,13 @@
         <v>914069</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H11" s="7">
         <v>1212</v>
@@ -2698,10 +2698,10 @@
         <v>866527</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>172</v>
+        <v>49</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>173</v>
@@ -2710,7 +2710,7 @@
         <v>2027</v>
       </c>
       <c r="N11" s="7">
-        <v>1780595</v>
+        <v>1780596</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>174</v>
@@ -2761,7 +2761,7 @@
         <v>2466</v>
       </c>
       <c r="N12" s="7">
-        <v>2088156</v>
+        <v>2088157</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2978,7 +2978,7 @@
         <v>202</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>203</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2993,13 +2993,13 @@
         <v>799877</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="H17" s="7">
         <v>1207</v>
@@ -3008,13 +3008,13 @@
         <v>905474</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M17" s="7">
         <v>2014</v>
@@ -3023,13 +3023,13 @@
         <v>1705350</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3097,13 +3097,13 @@
         <v>463333</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="H19" s="7">
         <v>1020</v>
@@ -3112,13 +3112,13 @@
         <v>644352</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>150</v>
+        <v>214</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="M19" s="7">
         <v>1575</v>
@@ -3127,13 +3127,13 @@
         <v>1107685</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3148,13 +3148,13 @@
         <v>2910842</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="H20" s="7">
         <v>4304</v>
@@ -3163,7 +3163,7 @@
         <v>3139563</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>158</v>
+        <v>223</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>224</v>
@@ -3240,7 +3240,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P57_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P57_R-Habitat-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CF84317-A2E4-4F05-A65D-3548AE90E952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{70160434-013F-4774-907A-82F929E4479C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{71A858F8-7C27-43D0-B530-B1CDC14F7D36}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{38648729-6228-4820-BBE5-62519282D579}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
     <sheet name="2023" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,9 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="229">
-  <si>
-    <t>Población con felicidad &lt;= 6 (Likert 0 a 10) en 2015 (Tasa respuesta: 99,57%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="231">
+  <si>
+    <t>Población con felicidad &lt;= 6 (Likert 0 a 10) en 2016 (Tasa respuesta: 99,57%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -75,28 +75,28 @@
     <t>20,73%</t>
   </si>
   <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
   </si>
   <si>
     <t>20,28%</t>
   </si>
   <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
   </si>
   <si>
     <t>20,51%</t>
   </si>
   <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,457 +105,463 @@
     <t>79,27%</t>
   </si>
   <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
   </si>
   <si>
     <t>79,72%</t>
   </si>
   <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
   </si>
   <si>
     <t>79,49%</t>
   </si>
   <si>
-    <t>73,57%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>18,54%</t>
   </si>
   <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
   </si>
   <si>
     <t>24,85%</t>
   </si>
   <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
   </si>
   <si>
     <t>21,69%</t>
   </si>
   <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>81,46%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>75,15%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>73,38%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>82,52%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>71,4%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con felicidad &lt;= 6 (Likert 0 a 10) en 2023 (Tasa respuesta: 99,36%)</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>74,97%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>80,93%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
     <t>19,47%</t>
   </si>
   <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>75,15%</t>
-  </si>
-  <si>
-    <t>71,5%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
   </si>
   <si>
     <t>80,53%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>73,17%</t>
-  </si>
-  <si>
-    <t>78,66%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>82,52%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>71,39%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>76,02%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
-  </si>
-  <si>
-    <t>80,11%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con felicidad &lt;= 6 (Likert 0 a 10) en 2023 (Tasa respuesta: 99,36%)</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>74,97%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>80,93%</t>
-  </si>
-  <si>
-    <t>78,94%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
   </si>
   <si>
     <t>84,44%</t>
@@ -1135,7 +1141,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D4F182-D623-4DD0-8A20-95E8B132A330}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8F63538-FDF8-42D4-B5AF-8F8EF279A001}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1912,10 +1918,10 @@
         <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1930,13 +1936,13 @@
         <v>770348</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>722</v>
@@ -1945,13 +1951,13 @@
         <v>772073</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>1485</v>
@@ -1960,13 +1966,13 @@
         <v>1542422</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2034,13 +2040,13 @@
         <v>626093</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>744</v>
@@ -2049,13 +2055,13 @@
         <v>827903</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>1348</v>
@@ -2064,13 +2070,13 @@
         <v>1453996</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2085,13 +2091,13 @@
         <v>2754640</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>2579</v>
@@ -2100,28 +2106,28 @@
         <v>2700201</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>5193</v>
       </c>
       <c r="N20" s="7">
-        <v>5454840</v>
+        <v>5454841</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2163,7 +2169,7 @@
         <v>6541</v>
       </c>
       <c r="N21" s="7">
-        <v>6908836</v>
+        <v>6908837</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2177,7 +2183,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2198,7 +2204,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D29FDED7-A11D-493C-9F49-FFAA5828E3E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{053C1B9B-8D14-469B-8462-E64A2D1DC1D4}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2215,7 +2221,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2322,13 +2328,13 @@
         <v>16269</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H4" s="7">
         <v>44</v>
@@ -2337,13 +2343,13 @@
         <v>19403</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M4" s="7">
         <v>66</v>
@@ -2352,13 +2358,13 @@
         <v>35672</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2373,13 +2379,13 @@
         <v>81683</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H5" s="7">
         <v>193</v>
@@ -2388,10 +2394,10 @@
         <v>108782</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>139</v>
@@ -2653,7 +2659,7 @@
         <v>165</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>39</v>
+        <v>166</v>
       </c>
       <c r="M10" s="7">
         <v>439</v>
@@ -2662,13 +2668,13 @@
         <v>307561</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2683,13 +2689,13 @@
         <v>914069</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H11" s="7">
         <v>1212</v>
@@ -2698,13 +2704,13 @@
         <v>866527</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>49</v>
+        <v>174</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M11" s="7">
         <v>2027</v>
@@ -2713,13 +2719,13 @@
         <v>1780596</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2787,13 +2793,13 @@
         <v>66382</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H13" s="7">
         <v>114</v>
@@ -2802,13 +2808,13 @@
         <v>77655</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M13" s="7">
         <v>183</v>
@@ -2817,13 +2823,13 @@
         <v>144037</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2838,13 +2844,13 @@
         <v>662390</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H14" s="7">
         <v>927</v>
@@ -2853,13 +2859,13 @@
         <v>792216</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M14" s="7">
         <v>1534</v>
@@ -2868,13 +2874,13 @@
         <v>1454606</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2942,13 +2948,13 @@
         <v>163341</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H16" s="7">
         <v>348</v>
@@ -2957,13 +2963,13 @@
         <v>240369</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M16" s="7">
         <v>544</v>
@@ -2972,10 +2978,10 @@
         <v>403710</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>11</v>
@@ -2993,13 +2999,13 @@
         <v>799877</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H17" s="7">
         <v>1207</v>
@@ -3008,13 +3014,13 @@
         <v>905474</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M17" s="7">
         <v>2014</v>
@@ -3023,13 +3029,13 @@
         <v>1705350</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3097,13 +3103,13 @@
         <v>463333</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H19" s="7">
         <v>1020</v>
@@ -3112,13 +3118,13 @@
         <v>644352</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M19" s="7">
         <v>1575</v>
@@ -3127,13 +3133,13 @@
         <v>1107685</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3148,13 +3154,13 @@
         <v>2910842</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H20" s="7">
         <v>4304</v>
@@ -3163,13 +3169,13 @@
         <v>3139563</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M20" s="7">
         <v>7112</v>
@@ -3178,13 +3184,13 @@
         <v>6050405</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3240,7 +3246,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P57_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P57_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70160434-013F-4774-907A-82F929E4479C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5DD8ED0-19C6-4830-86DC-577BA17927DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{38648729-6228-4820-BBE5-62519282D579}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{18A843A6-4514-4521-B89B-C0EA33F162A1}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -37,9 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="231">
-  <si>
-    <t>Población con felicidad &lt;= 6 (Likert 0 a 10) en 2016 (Tasa respuesta: 99,57%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="229">
+  <si>
+    <t>Población con autopercepción de la felicidad &lt;= 6 (Likert 0 a 10) en 2016 (Tasa respuesta: 99,57%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -75,28 +75,28 @@
     <t>20,73%</t>
   </si>
   <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
   </si>
   <si>
     <t>20,28%</t>
   </si>
   <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
   </si>
   <si>
     <t>20,51%</t>
   </si>
   <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>79,27%</t>
   </si>
   <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
+    <t>70,3%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
   </si>
   <si>
     <t>79,72%</t>
   </si>
   <si>
-    <t>70,33%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
+    <t>71,58%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
   </si>
   <si>
     <t>79,49%</t>
   </si>
   <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
+    <t>73,83%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,55 +138,55 @@
     <t>18,54%</t>
   </si>
   <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
   </si>
   <si>
     <t>24,85%</t>
   </si>
   <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
   </si>
   <si>
     <t>21,69%</t>
   </si>
   <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
   </si>
   <si>
     <t>81,46%</t>
   </si>
   <si>
-    <t>77,77%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
+    <t>78,24%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
   </si>
   <si>
     <t>75,15%</t>
   </si>
   <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
   </si>
   <si>
     <t>78,31%</t>
   </si>
   <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
+    <t>75,6%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -195,25 +195,25 @@
     <t>20,1%</t>
   </si>
   <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
   </si>
   <si>
     <t>23,78%</t>
   </si>
   <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
   </si>
   <si>
     <t>21,96%</t>
   </si>
   <si>
-    <t>20,16%</t>
+    <t>20,11%</t>
   </si>
   <si>
     <t>23,81%</t>
@@ -222,19 +222,19 @@
     <t>79,9%</t>
   </si>
   <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
   </si>
   <si>
     <t>76,22%</t>
   </si>
   <si>
-    <t>73,38%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
   </si>
   <si>
     <t>78,04%</t>
@@ -243,7 +243,7 @@
     <t>76,19%</t>
   </si>
   <si>
-    <t>79,84%</t>
+    <t>79,89%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
@@ -252,7 +252,7 @@
     <t>17,32%</t>
   </si>
   <si>
-    <t>14,68%</t>
+    <t>14,7%</t>
   </si>
   <si>
     <t>20,22%</t>
@@ -261,19 +261,19 @@
     <t>19,52%</t>
   </si>
   <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
   </si>
   <si>
     <t>18,43%</t>
   </si>
   <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
   </si>
   <si>
     <t>82,68%</t>
@@ -282,25 +282,25 @@
     <t>79,78%</t>
   </si>
   <si>
-    <t>85,32%</t>
+    <t>85,3%</t>
   </si>
   <si>
     <t>80,48%</t>
   </si>
   <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
+    <t>77,56%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
   </si>
   <si>
     <t>81,57%</t>
   </si>
   <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -309,73 +309,76 @@
     <t>17,48%</t>
   </si>
   <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
   </si>
   <si>
     <t>25,72%</t>
   </si>
   <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
   </si>
   <si>
     <t>21,82%</t>
   </si>
   <si>
-    <t>23,87%</t>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
   </si>
   <si>
     <t>82,52%</t>
   </si>
   <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
   </si>
   <si>
     <t>74,28%</t>
   </si>
   <si>
-    <t>71,4%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
+    <t>71,28%</t>
+  </si>
+  <si>
+    <t>77,12%</t>
   </si>
   <si>
     <t>78,18%</t>
   </si>
   <si>
-    <t>76,13%</t>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
   </si>
   <si>
     <t>18,52%</t>
   </si>
   <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
+    <t>17,29%</t>
   </si>
   <si>
     <t>23,47%</t>
   </si>
   <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
   </si>
   <si>
     <t>21,05%</t>
   </si>
   <si>
-    <t>19,94%</t>
+    <t>20,09%</t>
   </si>
   <si>
     <t>22,08%</t>
@@ -384,19 +387,16 @@
     <t>81,48%</t>
   </si>
   <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
+    <t>82,71%</t>
   </si>
   <si>
     <t>76,53%</t>
   </si>
   <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
   </si>
   <si>
     <t>78,95%</t>
@@ -405,130 +405,124 @@
     <t>77,92%</t>
   </si>
   <si>
-    <t>80,06%</t>
+    <t>79,91%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población con felicidad &lt;= 6 (Likert 0 a 10) en 2023 (Tasa respuesta: 99,36%)</t>
+    <t>Población con autopercepción de la felicidad &lt;= 6 (Likert 0 a 10) en 2023 (Tasa respuesta: 99,36%)</t>
   </si>
   <si>
     <t>16,61%</t>
   </si>
   <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
   </si>
   <si>
     <t>15,14%</t>
   </si>
   <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
   </si>
   <si>
     <t>15,77%</t>
   </si>
   <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
   </si>
   <si>
     <t>83,39%</t>
   </si>
   <si>
-    <t>74,97%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
   </si>
   <si>
     <t>84,86%</t>
   </si>
   <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
   </si>
   <si>
     <t>84,23%</t>
   </si>
   <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
   </si>
   <si>
     <t>17,13%</t>
   </si>
   <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
   </si>
   <si>
     <t>20,88%</t>
   </si>
   <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
   </si>
   <si>
     <t>19,07%</t>
   </si>
   <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
+    <t>17,03%</t>
   </si>
   <si>
     <t>82,87%</t>
   </si>
   <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
   </si>
   <si>
     <t>79,12%</t>
   </si>
   <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
   </si>
   <si>
     <t>80,93%</t>
   </si>
   <si>
-    <t>78,94%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
+    <t>82,97%</t>
   </si>
   <si>
     <t>11,92%</t>
   </si>
   <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
   </si>
   <si>
     <t>17,5%</t>
@@ -537,145 +531,151 @@
     <t>15,56%</t>
   </si>
   <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
     <t>19,47%</t>
   </si>
   <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
   </si>
   <si>
     <t>80,53%</t>
   </si>
   <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
+    <t>85,28%</t>
   </si>
   <si>
     <t>79,02%</t>
   </si>
   <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
   </si>
   <si>
     <t>80,86%</t>
   </si>
   <si>
-    <t>82,35%</t>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
   </si>
   <si>
     <t>13,73%</t>
@@ -684,52 +684,46 @@
     <t>12,49%</t>
   </si>
   <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
   </si>
   <si>
     <t>15,47%</t>
   </si>
   <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
   </si>
   <si>
     <t>86,27%</t>
   </si>
   <si>
-    <t>85,07%</t>
+    <t>85,06%</t>
   </si>
   <si>
     <t>87,51%</t>
   </si>
   <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
   </si>
   <si>
     <t>84,53%</t>
   </si>
   <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
   </si>
 </sst>
 </file>
@@ -1141,7 +1135,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8F63538-FDF8-42D4-B5AF-8F8EF279A001}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7307D255-46AB-4836-A388-1F18B6F374C6}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1918,10 +1912,10 @@
         <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1936,13 +1930,13 @@
         <v>770348</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>722</v>
@@ -1951,13 +1945,13 @@
         <v>772073</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>1485</v>
@@ -1966,13 +1960,13 @@
         <v>1542422</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2040,13 +2034,13 @@
         <v>626093</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
       <c r="H19" s="7">
         <v>744</v>
@@ -2055,13 +2049,13 @@
         <v>827903</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>1348</v>
@@ -2070,13 +2064,13 @@
         <v>1453996</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2091,10 +2085,10 @@
         <v>2754640</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>116</v>
@@ -2118,7 +2112,7 @@
         <v>5193</v>
       </c>
       <c r="N20" s="7">
-        <v>5454841</v>
+        <v>5454840</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>120</v>
@@ -2169,7 +2163,7 @@
         <v>6541</v>
       </c>
       <c r="N21" s="7">
-        <v>6908837</v>
+        <v>6908836</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2204,7 +2198,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{053C1B9B-8D14-469B-8462-E64A2D1DC1D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D77ED10-428B-4AA9-ABAF-0BEC16DFCE4A}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2519,7 +2513,7 @@
         <v>150</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>151</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2534,13 +2528,13 @@
         <v>452823</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H8" s="7">
         <v>765</v>
@@ -2549,13 +2543,13 @@
         <v>466566</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M8" s="7">
         <v>1253</v>
@@ -2564,13 +2558,13 @@
         <v>919389</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2638,13 +2632,13 @@
         <v>123733</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H10" s="7">
         <v>291</v>
@@ -2653,13 +2647,13 @@
         <v>183828</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M10" s="7">
         <v>439</v>
@@ -2668,13 +2662,13 @@
         <v>307561</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2689,13 +2683,13 @@
         <v>914069</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H11" s="7">
         <v>1212</v>
@@ -2704,28 +2698,28 @@
         <v>866527</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M11" s="7">
         <v>2027</v>
       </c>
       <c r="N11" s="7">
-        <v>1780596</v>
+        <v>1780595</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2767,7 +2761,7 @@
         <v>2466</v>
       </c>
       <c r="N12" s="7">
-        <v>2088157</v>
+        <v>2088156</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2793,13 +2787,13 @@
         <v>66382</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H13" s="7">
         <v>114</v>
@@ -2808,13 +2802,13 @@
         <v>77655</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M13" s="7">
         <v>183</v>
@@ -2823,13 +2817,13 @@
         <v>144037</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2844,13 +2838,13 @@
         <v>662390</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H14" s="7">
         <v>927</v>
@@ -2859,13 +2853,13 @@
         <v>792216</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M14" s="7">
         <v>1534</v>
@@ -2874,13 +2868,13 @@
         <v>1454606</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2948,13 +2942,13 @@
         <v>163341</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H16" s="7">
         <v>348</v>
@@ -2963,13 +2957,13 @@
         <v>240369</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M16" s="7">
         <v>544</v>
@@ -2978,13 +2972,13 @@
         <v>403710</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2999,13 +2993,13 @@
         <v>799877</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H17" s="7">
         <v>1207</v>
@@ -3014,13 +3008,13 @@
         <v>905474</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M17" s="7">
         <v>2014</v>
@@ -3029,10 +3023,10 @@
         <v>1705350</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>212</v>
@@ -3118,13 +3112,13 @@
         <v>644352</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="M19" s="7">
         <v>1575</v>
@@ -3133,13 +3127,13 @@
         <v>1107685</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3154,13 +3148,13 @@
         <v>2910842</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="H20" s="7">
         <v>4304</v>
@@ -3169,13 +3163,13 @@
         <v>3139563</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="M20" s="7">
         <v>7112</v>
@@ -3184,13 +3178,13 @@
         <v>6050405</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P57_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P57_R-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5DD8ED0-19C6-4830-86DC-577BA17927DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C98DDC6C-BDEF-410E-BC0A-FE687E77F67C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{18A843A6-4514-4521-B89B-C0EA33F162A1}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{211A86BF-B1FA-4D95-A386-64B2FC3D955B}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -37,9 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="229">
-  <si>
-    <t>Población con autopercepción de la felicidad &lt;= 6 (Likert 0 a 10) en 2016 (Tasa respuesta: 99,57%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="192">
+  <si>
+    <t>Población con autopercepción de la felicidad menor o igual a 6 (Likert 0 a 10) en 2016 (Tasa respuesta: 99,57%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -66,129 +66,72 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>70,3%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>71,58%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>73,83%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>77,75%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>72,4%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>75,15%</t>
-  </si>
-  <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>75,6%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
@@ -246,7 +189,7 @@
     <t>79,89%</t>
   </si>
   <si>
-    <t>&gt;50.000hab</t>
+    <t>&gt;50.000 hab</t>
   </si>
   <si>
     <t>17,32%</t>
@@ -411,319 +354,265 @@
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población con autopercepción de la felicidad &lt;= 6 (Likert 0 a 10) en 2023 (Tasa respuesta: 99,36%)</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>80,93%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>80,53%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
+    <t>Población con autopercepción de la felicidad menor o igual a 6 (Likert 0 a 10) en 2023 (Tasa respuesta: 99,36%)</t>
+  </si>
+  <si>
+    <t>16,31%</t>
   </si>
   <si>
     <t>13,73%</t>
   </si>
   <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
   </si>
   <si>
     <t>86,27%</t>
   </si>
   <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>80,46%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>84,78%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>82,0%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
   </si>
 </sst>
 </file>
@@ -1135,8 +1024,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7307D255-46AB-4836-A388-1F18B6F374C6}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B0B0DCA-3E4D-4EB6-B7BC-73A8F3169158}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1253,10 +1142,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>22</v>
+        <v>121</v>
       </c>
       <c r="D4" s="7">
-        <v>23943</v>
+        <v>126667</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1268,10 +1157,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>23</v>
+        <v>154</v>
       </c>
       <c r="I4" s="7">
-        <v>22984</v>
+        <v>160644</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1283,10 +1172,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>45</v>
+        <v>275</v>
       </c>
       <c r="N4" s="7">
-        <v>46927</v>
+        <v>287311</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1304,10 +1193,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>90</v>
+        <v>526</v>
       </c>
       <c r="D5" s="7">
-        <v>91545</v>
+        <v>542826</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1319,10 +1208,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>92</v>
+        <v>507</v>
       </c>
       <c r="I5" s="7">
-        <v>90376</v>
+        <v>506750</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1334,10 +1223,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>182</v>
+        <v>1033</v>
       </c>
       <c r="N5" s="7">
-        <v>181921</v>
+        <v>1049576</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1355,10 +1244,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>112</v>
+        <v>647</v>
       </c>
       <c r="D6" s="7">
-        <v>115488</v>
+        <v>669493</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1370,10 +1259,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>661</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>667394</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1385,10 +1274,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>227</v>
+        <v>1308</v>
       </c>
       <c r="N6" s="7">
-        <v>228848</v>
+        <v>1336887</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1408,10 +1297,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>99</v>
+        <v>196</v>
       </c>
       <c r="D7" s="7">
-        <v>102725</v>
+        <v>205315</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1423,10 +1312,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>131</v>
+        <v>222</v>
       </c>
       <c r="I7" s="7">
-        <v>137659</v>
+        <v>247779</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1438,10 +1327,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>230</v>
+        <v>418</v>
       </c>
       <c r="N7" s="7">
-        <v>240384</v>
+        <v>453094</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1459,10 +1348,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>436</v>
+        <v>754</v>
       </c>
       <c r="D8" s="7">
-        <v>451280</v>
+        <v>816014</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1474,10 +1363,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>415</v>
+        <v>754</v>
       </c>
       <c r="I8" s="7">
-        <v>416375</v>
+        <v>794157</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1489,10 +1378,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>851</v>
+        <v>1508</v>
       </c>
       <c r="N8" s="7">
-        <v>867655</v>
+        <v>1610171</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1510,10 +1399,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>535</v>
+        <v>950</v>
       </c>
       <c r="D9" s="7">
-        <v>554005</v>
+        <v>1021329</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1525,10 +1414,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>546</v>
+        <v>976</v>
       </c>
       <c r="I9" s="7">
-        <v>554034</v>
+        <v>1041936</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1540,10 +1429,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1081</v>
+        <v>1926</v>
       </c>
       <c r="N9" s="7">
-        <v>1108039</v>
+        <v>2063265</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1563,10 +1452,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>196</v>
+        <v>122</v>
       </c>
       <c r="D10" s="7">
-        <v>205315</v>
+        <v>130986</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1578,10 +1467,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>222</v>
+        <v>135</v>
       </c>
       <c r="I10" s="7">
-        <v>247779</v>
+        <v>152087</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1593,10 +1482,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>418</v>
+        <v>257</v>
       </c>
       <c r="N10" s="7">
-        <v>453094</v>
+        <v>283073</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1614,10 +1503,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>754</v>
+        <v>571</v>
       </c>
       <c r="D11" s="7">
-        <v>816014</v>
+        <v>625453</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1629,10 +1518,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>754</v>
+        <v>596</v>
       </c>
       <c r="I11" s="7">
-        <v>794157</v>
+        <v>627218</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1644,10 +1533,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1508</v>
+        <v>1167</v>
       </c>
       <c r="N11" s="7">
-        <v>1610171</v>
+        <v>1252671</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1665,10 +1554,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>950</v>
+        <v>693</v>
       </c>
       <c r="D12" s="7">
-        <v>1021329</v>
+        <v>756439</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1680,10 +1569,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>976</v>
+        <v>731</v>
       </c>
       <c r="I12" s="7">
-        <v>1041936</v>
+        <v>779305</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1695,10 +1584,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1926</v>
+        <v>1424</v>
       </c>
       <c r="N12" s="7">
-        <v>2063265</v>
+        <v>1535744</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1718,10 +1607,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="D13" s="7">
-        <v>130986</v>
+        <v>163125</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1733,10 +1622,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>135</v>
+        <v>233</v>
       </c>
       <c r="I13" s="7">
-        <v>152087</v>
+        <v>267394</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1748,10 +1637,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>257</v>
+        <v>398</v>
       </c>
       <c r="N13" s="7">
-        <v>283073</v>
+        <v>430518</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1769,10 +1658,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>571</v>
+        <v>763</v>
       </c>
       <c r="D14" s="7">
-        <v>625453</v>
+        <v>770348</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1784,10 +1673,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>596</v>
+        <v>722</v>
       </c>
       <c r="I14" s="7">
-        <v>627218</v>
+        <v>772073</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1799,10 +1688,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>1167</v>
+        <v>1485</v>
       </c>
       <c r="N14" s="7">
-        <v>1252671</v>
+        <v>1542422</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1820,10 +1709,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>693</v>
+        <v>928</v>
       </c>
       <c r="D15" s="7">
-        <v>756439</v>
+        <v>933473</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1835,10 +1724,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>731</v>
+        <v>955</v>
       </c>
       <c r="I15" s="7">
-        <v>779305</v>
+        <v>1039467</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1850,10 +1739,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1424</v>
+        <v>1883</v>
       </c>
       <c r="N15" s="7">
-        <v>1535744</v>
+        <v>1972940</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1867,55 +1756,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>165</v>
+        <v>604</v>
       </c>
       <c r="D16" s="7">
-        <v>163125</v>
+        <v>626093</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" s="7">
+        <v>744</v>
+      </c>
+      <c r="I16" s="7">
+        <v>827903</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>233</v>
-      </c>
-      <c r="I16" s="7">
-        <v>267394</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>1348</v>
+      </c>
+      <c r="N16" s="7">
+        <v>1453996</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="7">
-        <v>398</v>
-      </c>
-      <c r="N16" s="7">
-        <v>430518</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1924,49 +1813,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>763</v>
+        <v>2614</v>
       </c>
       <c r="D17" s="7">
-        <v>770348</v>
+        <v>2754640</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" s="7">
+        <v>2579</v>
+      </c>
+      <c r="I17" s="7">
+        <v>2700201</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>722</v>
-      </c>
-      <c r="I17" s="7">
-        <v>772073</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>5193</v>
+      </c>
+      <c r="N17" s="7">
+        <v>5454841</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1485</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1542422</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1975,10 +1864,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>928</v>
+        <v>3218</v>
       </c>
       <c r="D18" s="7">
-        <v>933473</v>
+        <v>3380733</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1990,10 +1879,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>955</v>
+        <v>3323</v>
       </c>
       <c r="I18" s="7">
-        <v>1039467</v>
+        <v>3528104</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2005,10 +1894,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1883</v>
+        <v>6541</v>
       </c>
       <c r="N18" s="7">
-        <v>1972940</v>
+        <v>6908837</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2021,171 +1910,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>604</v>
-      </c>
-      <c r="D19" s="7">
-        <v>626093</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H19" s="7">
-        <v>744</v>
-      </c>
-      <c r="I19" s="7">
-        <v>827903</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1348</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1453996</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2614</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2754640</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2579</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2700201</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="M20" s="7">
-        <v>5193</v>
-      </c>
-      <c r="N20" s="7">
-        <v>5454840</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3218</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3380733</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3323</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3528104</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6541</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6908836</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2198,8 +1931,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D77ED10-428B-4AA9-ABAF-0BEC16DFCE4A}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F9144A-3154-493F-B22F-F5207C01D8D0}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2215,7 +1948,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2316,49 +2049,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>22</v>
+        <v>142</v>
       </c>
       <c r="D4" s="7">
-        <v>16269</v>
+        <v>102552</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="H4" s="7">
-        <v>44</v>
+        <v>267</v>
       </c>
       <c r="I4" s="7">
-        <v>19403</v>
+        <v>129235</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="M4" s="7">
-        <v>66</v>
+        <v>409</v>
       </c>
       <c r="N4" s="7">
-        <v>35672</v>
+        <v>231787</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2367,49 +2100,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>91</v>
+        <v>579</v>
       </c>
       <c r="D5" s="7">
-        <v>81683</v>
+        <v>526067</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="H5" s="7">
-        <v>193</v>
+        <v>958</v>
       </c>
       <c r="I5" s="7">
-        <v>108782</v>
+        <v>541001</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="M5" s="7">
-        <v>284</v>
+        <v>1537</v>
       </c>
       <c r="N5" s="7">
-        <v>190465</v>
+        <v>1067068</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2418,10 +2151,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>113</v>
+        <v>721</v>
       </c>
       <c r="D6" s="7">
-        <v>97952</v>
+        <v>628619</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2433,10 +2166,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>237</v>
+        <v>1225</v>
       </c>
       <c r="I6" s="7">
-        <v>128185</v>
+        <v>670236</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2448,10 +2181,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>350</v>
+        <v>1946</v>
       </c>
       <c r="N6" s="7">
-        <v>226137</v>
+        <v>1298855</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2471,49 +2204,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="D7" s="7">
-        <v>93609</v>
+        <v>114896</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="H7" s="7">
-        <v>223</v>
+        <v>291</v>
       </c>
       <c r="I7" s="7">
-        <v>123096</v>
+        <v>162421</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="M7" s="7">
-        <v>343</v>
+        <v>439</v>
       </c>
       <c r="N7" s="7">
-        <v>216705</v>
+        <v>277317</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>36</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2522,49 +2255,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>488</v>
+        <v>815</v>
       </c>
       <c r="D8" s="7">
-        <v>452823</v>
+        <v>1076619</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="H8" s="7">
-        <v>765</v>
+        <v>1212</v>
       </c>
       <c r="I8" s="7">
-        <v>466566</v>
+        <v>787334</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="M8" s="7">
-        <v>1253</v>
+        <v>2027</v>
       </c>
       <c r="N8" s="7">
-        <v>919389</v>
+        <v>1863953</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>140</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2573,10 +2306,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>608</v>
+        <v>963</v>
       </c>
       <c r="D9" s="7">
-        <v>546432</v>
+        <v>1191515</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2588,10 +2321,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>988</v>
+        <v>1503</v>
       </c>
       <c r="I9" s="7">
-        <v>589662</v>
+        <v>949755</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2603,10 +2336,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1596</v>
+        <v>2466</v>
       </c>
       <c r="N9" s="7">
-        <v>1136094</v>
+        <v>2141270</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2626,49 +2359,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>69</v>
+      </c>
+      <c r="D10" s="7">
+        <v>62693</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H10" s="7">
+        <v>114</v>
+      </c>
+      <c r="I10" s="7">
+        <v>69111</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="M10" s="7">
+        <v>183</v>
+      </c>
+      <c r="N10" s="7">
+        <v>131805</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="D10" s="7">
-        <v>123733</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="H10" s="7">
-        <v>291</v>
-      </c>
-      <c r="I10" s="7">
-        <v>183828</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="M10" s="7">
-        <v>439</v>
-      </c>
-      <c r="N10" s="7">
-        <v>307561</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>165</v>
-      </c>
       <c r="P10" s="7" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2677,49 +2410,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>815</v>
+        <v>607</v>
       </c>
       <c r="D11" s="7">
-        <v>914069</v>
+        <v>641987</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="H11" s="7">
-        <v>1212</v>
+        <v>927</v>
       </c>
       <c r="I11" s="7">
-        <v>866527</v>
+        <v>860384</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="M11" s="7">
-        <v>2027</v>
+        <v>1534</v>
       </c>
       <c r="N11" s="7">
-        <v>1780595</v>
+        <v>1502371</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2728,10 +2461,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>963</v>
+        <v>676</v>
       </c>
       <c r="D12" s="7">
-        <v>1037802</v>
+        <v>704680</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2743,10 +2476,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1503</v>
+        <v>1041</v>
       </c>
       <c r="I12" s="7">
-        <v>1050355</v>
+        <v>929495</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2758,10 +2491,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2466</v>
+        <v>1717</v>
       </c>
       <c r="N12" s="7">
-        <v>2088156</v>
+        <v>1634176</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2781,49 +2514,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>69</v>
+        <v>196</v>
       </c>
       <c r="D13" s="7">
-        <v>66382</v>
+        <v>149735</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>177</v>
+        <v>12</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="H13" s="7">
-        <v>114</v>
+        <v>348</v>
       </c>
       <c r="I13" s="7">
-        <v>77655</v>
+        <v>213083</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>182</v>
+        <v>38</v>
       </c>
       <c r="M13" s="7">
-        <v>183</v>
+        <v>544</v>
       </c>
       <c r="N13" s="7">
-        <v>144037</v>
+        <v>362817</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2832,49 +2565,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>607</v>
+        <v>807</v>
       </c>
       <c r="D14" s="7">
-        <v>662390</v>
+        <v>775084</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>186</v>
+        <v>23</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="H14" s="7">
-        <v>927</v>
+        <v>1207</v>
       </c>
       <c r="I14" s="7">
-        <v>792216</v>
+        <v>877747</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>190</v>
+        <v>47</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="M14" s="7">
-        <v>1534</v>
+        <v>2014</v>
       </c>
       <c r="N14" s="7">
-        <v>1454606</v>
+        <v>1652832</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2883,10 +2616,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>676</v>
+        <v>1003</v>
       </c>
       <c r="D15" s="7">
-        <v>728772</v>
+        <v>924819</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2898,10 +2631,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1041</v>
+        <v>1555</v>
       </c>
       <c r="I15" s="7">
-        <v>869871</v>
+        <v>1090830</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2913,10 +2646,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1717</v>
+        <v>2558</v>
       </c>
       <c r="N15" s="7">
-        <v>1598643</v>
+        <v>2015649</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2930,55 +2663,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>196</v>
+        <v>555</v>
       </c>
       <c r="D16" s="7">
-        <v>163341</v>
+        <v>429876</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="H16" s="7">
-        <v>348</v>
+        <v>1020</v>
       </c>
       <c r="I16" s="7">
-        <v>240369</v>
+        <v>573850</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="M16" s="7">
-        <v>544</v>
+        <v>1575</v>
       </c>
       <c r="N16" s="7">
-        <v>403710</v>
+        <v>1003726</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2987,49 +2720,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>807</v>
+        <v>2808</v>
       </c>
       <c r="D17" s="7">
-        <v>799877</v>
+        <v>3019757</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="H17" s="7">
-        <v>1207</v>
+        <v>4304</v>
       </c>
       <c r="I17" s="7">
-        <v>905474</v>
+        <v>3066466</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="M17" s="7">
-        <v>2014</v>
+        <v>7112</v>
       </c>
       <c r="N17" s="7">
-        <v>1705350</v>
+        <v>6086223</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3038,10 +2771,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1003</v>
+        <v>3363</v>
       </c>
       <c r="D18" s="7">
-        <v>963218</v>
+        <v>3449633</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3053,10 +2786,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1555</v>
+        <v>5324</v>
       </c>
       <c r="I18" s="7">
-        <v>1145843</v>
+        <v>3640316</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3068,10 +2801,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2558</v>
+        <v>8687</v>
       </c>
       <c r="N18" s="7">
-        <v>2109060</v>
+        <v>7089949</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3084,171 +2817,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>555</v>
-      </c>
-      <c r="D19" s="7">
-        <v>463333</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1020</v>
-      </c>
-      <c r="I19" s="7">
-        <v>644352</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1575</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1107685</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2808</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2910842</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="H20" s="7">
-        <v>4304</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3139563</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="M20" s="7">
-        <v>7112</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6050405</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3363</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3374175</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5324</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3783915</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8687</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7158090</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
